--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2752448.750438566</v>
+        <v>-2754952.499762351</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16245761.9680326</v>
+        <v>16245761.96803259</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>371.7758208812686</v>
       </c>
       <c r="C11" t="n">
         <v>354.3148709887956</v>
@@ -1376,19 +1376,19 @@
         <v>343.725020838471</v>
       </c>
       <c r="E11" t="n">
-        <v>225.6143500077276</v>
+        <v>370.9723492900498</v>
       </c>
       <c r="F11" t="n">
-        <v>395.9180249594995</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>399.9637048712415</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>283.6497436051085</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>30.61890899071398</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>316.794237687923</v>
+        <v>316.7942376879229</v>
       </c>
       <c r="W11" t="n">
-        <v>338.2829479352011</v>
+        <v>338.282947935201</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>358.7730798962571</v>
       </c>
       <c r="Y11" t="n">
-        <v>375.2799178738417</v>
+        <v>264.6358386540209</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.8739593997254</v>
+        <v>168.8739593997253</v>
       </c>
       <c r="C13" t="n">
         <v>156.2888003164159</v>
@@ -1534,19 +1534,19 @@
         <v>137.6574522360004</v>
       </c>
       <c r="E13" t="n">
-        <v>135.4759418643573</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>134.4630272407193</v>
       </c>
       <c r="G13" t="n">
-        <v>155.0677874768163</v>
+        <v>155.0677874768162</v>
       </c>
       <c r="H13" t="n">
-        <v>133.7969941321089</v>
+        <v>133.7969941321088</v>
       </c>
       <c r="I13" t="n">
-        <v>85.3943996276262</v>
+        <v>85.39439962762611</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.97413188783536</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>178.8110045492299</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>208.5909284939572</v>
       </c>
       <c r="U13" t="n">
-        <v>275.253817423401</v>
+        <v>68.79750415177091</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>123.4438097950342</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>214.7516346068252</v>
       </c>
       <c r="Y13" t="n">
-        <v>207.6266325698829</v>
+        <v>207.6266325698828</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>348.7556551813274</v>
+        <v>348.7556551813273</v>
       </c>
       <c r="C14" t="n">
-        <v>124.010810961318</v>
+        <v>331.2947052888543</v>
       </c>
       <c r="D14" t="n">
-        <v>320.7048551385298</v>
+        <v>320.7048551385297</v>
       </c>
       <c r="E14" t="n">
-        <v>347.9521835901086</v>
+        <v>347.9521835901085</v>
       </c>
       <c r="F14" t="n">
         <v>372.8978592595582</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>376.9435391713002</v>
       </c>
       <c r="H14" t="n">
-        <v>260.6295779051673</v>
+        <v>117.0797785992916</v>
       </c>
       <c r="I14" t="n">
-        <v>7.598743290772745</v>
+        <v>7.59874329077266</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.20957530602266</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>169.9397836574669</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>217.0169854767488</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>293.7740719879817</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>315.2627822352597</v>
       </c>
       <c r="X14" t="n">
         <v>335.7529141963158</v>
       </c>
       <c r="Y14" t="n">
-        <v>352.2597521739004</v>
+        <v>352.2597521739003</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>145.853793699784</v>
       </c>
       <c r="C16" t="n">
-        <v>133.2686346164746</v>
+        <v>133.2686346164745</v>
       </c>
       <c r="D16" t="n">
-        <v>114.6372865360592</v>
+        <v>114.6372865360591</v>
       </c>
       <c r="E16" t="n">
-        <v>112.455776164416</v>
+        <v>112.4557761644159</v>
       </c>
       <c r="F16" t="n">
-        <v>111.4428615407781</v>
+        <v>111.442861540778</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>132.0476217768749</v>
       </c>
       <c r="H16" t="n">
-        <v>110.7768284321676</v>
+        <v>110.7768284321675</v>
       </c>
       <c r="I16" t="n">
-        <v>62.37423392768491</v>
+        <v>62.37423392768481</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.99769285172951</v>
+        <v>54.95396618789404</v>
       </c>
       <c r="S16" t="n">
-        <v>155.7908388492887</v>
+        <v>155.7908388492886</v>
       </c>
       <c r="T16" t="n">
-        <v>185.570762794016</v>
+        <v>185.5707627940159</v>
       </c>
       <c r="U16" t="n">
-        <v>252.2336517234596</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>218.1594568416748</v>
+        <v>160.5354197523127</v>
       </c>
       <c r="W16" t="n">
-        <v>252.5448118544378</v>
+        <v>252.5448118544377</v>
       </c>
       <c r="X16" t="n">
         <v>191.7314689068839</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.6064668699416</v>
+        <v>184.6064668699415</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>301.7805185627349</v>
+        <v>301.7805185627348</v>
       </c>
       <c r="C17" t="n">
-        <v>284.3195686702618</v>
+        <v>284.3195686702617</v>
       </c>
       <c r="D17" t="n">
-        <v>39.49015873690986</v>
+        <v>273.7297185199371</v>
       </c>
       <c r="E17" t="n">
-        <v>300.9770469715161</v>
+        <v>300.977046971516</v>
       </c>
       <c r="F17" t="n">
-        <v>325.9227226409657</v>
+        <v>325.9227226409656</v>
       </c>
       <c r="G17" t="n">
-        <v>329.9684025527077</v>
+        <v>329.9684025527076</v>
       </c>
       <c r="H17" t="n">
-        <v>213.6544412865748</v>
+        <v>213.6544412865746</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>28.2344386874301</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>122.9646470388744</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>170.0418488581562</v>
+        <v>87.00137480143222</v>
       </c>
       <c r="V17" t="n">
-        <v>246.7989353693892</v>
+        <v>246.7989353693891</v>
       </c>
       <c r="W17" t="n">
-        <v>268.2876456166673</v>
+        <v>268.2876456166672</v>
       </c>
       <c r="X17" t="n">
-        <v>288.7777775777233</v>
+        <v>288.7777775777232</v>
       </c>
       <c r="Y17" t="n">
         <v>305.2846155553078</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.87865708119156</v>
+        <v>98.87865708119148</v>
       </c>
       <c r="C19" t="n">
-        <v>86.2934979978821</v>
+        <v>86.29349799788201</v>
       </c>
       <c r="D19" t="n">
-        <v>67.66214991746662</v>
+        <v>67.66214991746654</v>
       </c>
       <c r="E19" t="n">
-        <v>65.48063954582344</v>
+        <v>65.48063954582335</v>
       </c>
       <c r="F19" t="n">
-        <v>64.46772492218551</v>
+        <v>64.46772492218543</v>
       </c>
       <c r="G19" t="n">
-        <v>85.07248515828249</v>
+        <v>85.0724851582824</v>
       </c>
       <c r="H19" t="n">
-        <v>77.22337812747416</v>
+        <v>63.80169181357496</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.978829569301595</v>
+        <v>21.40051588320171</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>108.8157022306961</v>
       </c>
       <c r="T19" t="n">
-        <v>138.5956261754235</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>205.2585151048671</v>
+        <v>205.258515104867</v>
       </c>
       <c r="V19" t="n">
-        <v>171.1843202230823</v>
+        <v>171.1843202230822</v>
       </c>
       <c r="W19" t="n">
-        <v>205.5696752358453</v>
+        <v>205.5696752358452</v>
       </c>
       <c r="X19" t="n">
-        <v>144.7563322882914</v>
+        <v>144.7563322882913</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.6313302513491</v>
+        <v>137.631330251349</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>301.7805185627349</v>
+        <v>301.7805185627348</v>
       </c>
       <c r="C20" t="n">
-        <v>284.3195686702618</v>
+        <v>284.3195686702617</v>
       </c>
       <c r="D20" t="n">
-        <v>273.7297185199373</v>
+        <v>273.7297185199371</v>
       </c>
       <c r="E20" t="n">
-        <v>300.9770469715161</v>
+        <v>300.977046971516</v>
       </c>
       <c r="F20" t="n">
-        <v>325.9227226409657</v>
+        <v>325.9227226409656</v>
       </c>
       <c r="G20" t="n">
-        <v>329.9684025527077</v>
+        <v>329.9684025527076</v>
       </c>
       <c r="H20" t="n">
-        <v>213.6544412865748</v>
+        <v>213.6544412865746</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>28.2344386874301</v>
+        <v>28.23443868743001</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>58.76693611400215</v>
       </c>
       <c r="U20" t="n">
-        <v>170.0418488581562</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>246.7989353693892</v>
+        <v>246.7989353693891</v>
       </c>
       <c r="W20" t="n">
-        <v>268.2876456166673</v>
+        <v>268.2876456166672</v>
       </c>
       <c r="X20" t="n">
-        <v>177.5028648335708</v>
+        <v>288.7777775777232</v>
       </c>
       <c r="Y20" t="n">
         <v>305.2846155553078</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247764</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.87865708119156</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>86.2934979978821</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>67.66214991746662</v>
+        <v>67.66214991746654</v>
       </c>
       <c r="E22" t="n">
-        <v>65.48063954582344</v>
+        <v>65.48063954582335</v>
       </c>
       <c r="F22" t="n">
-        <v>64.46772492218551</v>
+        <v>64.46772492218543</v>
       </c>
       <c r="G22" t="n">
-        <v>85.07248515828249</v>
+        <v>85.0724851582824</v>
       </c>
       <c r="H22" t="n">
-        <v>63.80169181357505</v>
+        <v>63.80169181357496</v>
       </c>
       <c r="I22" t="n">
-        <v>15.39909730909236</v>
+        <v>15.39909730909228</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.978829569301595</v>
+        <v>7.97882956930151</v>
       </c>
       <c r="S22" t="n">
-        <v>108.8157022306962</v>
+        <v>108.8157022306961</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>138.5956261754234</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>205.258515104867</v>
       </c>
       <c r="V22" t="n">
-        <v>171.1843202230823</v>
+        <v>171.1843202230822</v>
       </c>
       <c r="W22" t="n">
-        <v>218.9913615497443</v>
+        <v>205.5696752358452</v>
       </c>
       <c r="X22" t="n">
-        <v>144.7563322882914</v>
+        <v>144.7563322882913</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.6313302513491</v>
+        <v>151.053016565249</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>301.7805185627349</v>
+        <v>301.7805185627348</v>
       </c>
       <c r="C23" t="n">
-        <v>284.3195686702618</v>
+        <v>284.3195686702617</v>
       </c>
       <c r="D23" t="n">
-        <v>273.7297185199373</v>
+        <v>273.7297185199371</v>
       </c>
       <c r="E23" t="n">
-        <v>300.9770469715161</v>
+        <v>300.977046971516</v>
       </c>
       <c r="F23" t="n">
-        <v>325.9227226409657</v>
+        <v>325.9227226409656</v>
       </c>
       <c r="G23" t="n">
-        <v>329.9684025527077</v>
+        <v>329.9684025527076</v>
       </c>
       <c r="H23" t="n">
-        <v>213.6544412865747</v>
+        <v>213.6544412865746</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>28.2344386874301</v>
+        <v>28.23443868743001</v>
       </c>
       <c r="T23" t="n">
-        <v>122.9646470388744</v>
+        <v>122.9646470388743</v>
       </c>
       <c r="U23" t="n">
         <v>170.0418488581562</v>
       </c>
       <c r="V23" t="n">
-        <v>246.7989353693892</v>
+        <v>246.7989353693891</v>
       </c>
       <c r="W23" t="n">
-        <v>268.2876456166673</v>
+        <v>268.2876456166672</v>
       </c>
       <c r="X23" t="n">
-        <v>288.7777775777233</v>
+        <v>288.7777775777232</v>
       </c>
       <c r="Y23" t="n">
         <v>305.2846155553078</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824773</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.87865708119156</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>86.2934979978821</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>67.66214991746662</v>
+        <v>67.66214991746654</v>
       </c>
       <c r="E25" t="n">
-        <v>65.48063954582344</v>
+        <v>65.48063954582335</v>
       </c>
       <c r="F25" t="n">
-        <v>64.46772492218551</v>
+        <v>64.46772492218543</v>
       </c>
       <c r="G25" t="n">
-        <v>85.07248515828249</v>
+        <v>98.49417147218252</v>
       </c>
       <c r="H25" t="n">
-        <v>77.22337812747416</v>
+        <v>63.80169181357496</v>
       </c>
       <c r="I25" t="n">
-        <v>15.39909730909236</v>
+        <v>15.39909730909228</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.978829569301595</v>
+        <v>7.97882956930151</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>108.8157022306961</v>
       </c>
       <c r="T25" t="n">
-        <v>138.5956261754235</v>
+        <v>138.5956261754234</v>
       </c>
       <c r="U25" t="n">
-        <v>205.2585151048671</v>
+        <v>205.258515104867</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>171.1843202230822</v>
       </c>
       <c r="W25" t="n">
-        <v>205.5696752358453</v>
+        <v>205.5696752358452</v>
       </c>
       <c r="X25" t="n">
-        <v>144.7563322882914</v>
+        <v>144.7563322882913</v>
       </c>
       <c r="Y25" t="n">
-        <v>137.6313302513491</v>
+        <v>137.631330251349</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.19245946964202</v>
+        <v>39.19245946964199</v>
       </c>
       <c r="T26" t="n">
         <v>133.9226678210863</v>
       </c>
       <c r="U26" t="n">
-        <v>180.9998696403682</v>
+        <v>180.9998696403681</v>
       </c>
       <c r="V26" t="n">
         <v>257.7569561516011</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>109.8366778634035</v>
       </c>
       <c r="C28" t="n">
-        <v>97.251518780094</v>
+        <v>97.25151878009399</v>
       </c>
       <c r="D28" t="n">
-        <v>78.62017069967852</v>
+        <v>78.62017069967851</v>
       </c>
       <c r="E28" t="n">
-        <v>76.43866032803534</v>
+        <v>76.43866032803533</v>
       </c>
       <c r="F28" t="n">
-        <v>75.42574570439741</v>
+        <v>75.4257457043974</v>
       </c>
       <c r="G28" t="n">
-        <v>96.03050594049439</v>
+        <v>96.03050594049438</v>
       </c>
       <c r="H28" t="n">
-        <v>74.75971259578695</v>
+        <v>74.75971259578694</v>
       </c>
       <c r="I28" t="n">
-        <v>26.35711809130427</v>
+        <v>26.35711809130425</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.9368503515135</v>
+        <v>18.93685035151348</v>
       </c>
       <c r="S28" t="n">
         <v>119.7737230129081</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958336</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3427,19 +3427,19 @@
         <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
         <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482635</v>
+        <v>100.0281334355441</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>90.60953276887592</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>92.084305103337</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
         <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
         <v>188.8382781084861</v>
@@ -3664,19 +3664,19 @@
         <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>90.95618068285712</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621589</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>170.2318734253253</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>89.94326605922073</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>239.7977839309367</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,13 +4034,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621583</v>
+        <v>89.27723295060954</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.20693826439368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333694</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2089.932030847177</v>
+        <v>1463.765544425253</v>
       </c>
       <c r="C11" t="n">
-        <v>1732.038221767586</v>
+        <v>1105.871735345662</v>
       </c>
       <c r="D11" t="n">
-        <v>1384.841231021655</v>
+        <v>758.6747445997314</v>
       </c>
       <c r="E11" t="n">
-        <v>1156.947948185567</v>
+        <v>383.9551998623072</v>
       </c>
       <c r="F11" t="n">
-        <v>757.0307512567795</v>
+        <v>383.9551998623072</v>
       </c>
       <c r="G11" t="n">
-        <v>353.0270089625961</v>
+        <v>383.9551998623072</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>97.44030733189453</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5081,10 +5081,10 @@
         <v>2469.002654962169</v>
       </c>
       <c r="X11" t="n">
-        <v>2469.002654962169</v>
+        <v>2106.605604561909</v>
       </c>
       <c r="Y11" t="n">
-        <v>2089.932030847177</v>
+        <v>1839.296676628555</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1014.132725416067</v>
+        <v>877.2883396944933</v>
       </c>
       <c r="C13" t="n">
-        <v>856.2652503489799</v>
+        <v>719.4208646274066</v>
       </c>
       <c r="D13" t="n">
-        <v>717.2173187974643</v>
+        <v>580.3729330758911</v>
       </c>
       <c r="E13" t="n">
-        <v>580.3729330758913</v>
+        <v>580.3729330758911</v>
       </c>
       <c r="F13" t="n">
-        <v>444.5516934388011</v>
+        <v>444.5516934388008</v>
       </c>
       <c r="G13" t="n">
-        <v>287.9175646743401</v>
+        <v>287.91756467434</v>
       </c>
       <c r="H13" t="n">
-        <v>152.769085753018</v>
+        <v>152.7690857530179</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>122.4831894535087</v>
+        <v>122.4831894535089</v>
       </c>
       <c r="K13" t="n">
-        <v>337.3188129767746</v>
+        <v>337.3188129767752</v>
       </c>
       <c r="L13" t="n">
-        <v>664.7270519996605</v>
+        <v>664.7270519996612</v>
       </c>
       <c r="M13" t="n">
-        <v>1019.732538173599</v>
+        <v>1019.7325381736</v>
       </c>
       <c r="N13" t="n">
-        <v>1371.989355453854</v>
+        <v>1371.989355453855</v>
       </c>
       <c r="O13" t="n">
-        <v>1682.167394948657</v>
+        <v>1682.167394948658</v>
       </c>
       <c r="P13" t="n">
-        <v>1925.623335956706</v>
+        <v>1925.623335956707</v>
       </c>
       <c r="Q13" t="n">
-        <v>2014.08207268361</v>
+        <v>2014.082072683612</v>
       </c>
       <c r="R13" t="n">
-        <v>2014.08207268361</v>
+        <v>1935.32032330196</v>
       </c>
       <c r="S13" t="n">
-        <v>2014.08207268361</v>
+        <v>1754.703146989606</v>
       </c>
       <c r="T13" t="n">
-        <v>2014.08207268361</v>
+        <v>1544.005239419952</v>
       </c>
       <c r="U13" t="n">
-        <v>1736.047913670074</v>
+        <v>1474.51281098382</v>
       </c>
       <c r="V13" t="n">
-        <v>1736.047913670074</v>
+        <v>1474.51281098382</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.357196705394</v>
+        <v>1474.51281098382</v>
       </c>
       <c r="X13" t="n">
-        <v>1394.436353668196</v>
+        <v>1257.591967946623</v>
       </c>
       <c r="Y13" t="n">
-        <v>1184.712482385486</v>
+        <v>1047.868096663913</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1514.788914558906</v>
+        <v>1959.917837986137</v>
       </c>
       <c r="C14" t="n">
-        <v>1389.525469143433</v>
+        <v>1625.276721532749</v>
       </c>
       <c r="D14" t="n">
-        <v>1065.581171023706</v>
+        <v>1301.332423413023</v>
       </c>
       <c r="E14" t="n">
-        <v>714.114318912485</v>
+        <v>949.8655713018021</v>
       </c>
       <c r="F14" t="n">
-        <v>337.4498146099006</v>
+        <v>573.2010669992181</v>
       </c>
       <c r="G14" t="n">
-        <v>337.4498146099006</v>
+        <v>192.4500173312381</v>
       </c>
       <c r="H14" t="n">
-        <v>74.18761470569126</v>
+        <v>74.18761470569106</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3249.63655362329</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3077.980206494536</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2858.771130255395</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2562.029643398849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2562.029643398849</v>
+        <v>3007.15856682608</v>
       </c>
       <c r="X14" t="n">
-        <v>2222.885285624792</v>
+        <v>2668.014209052024</v>
       </c>
       <c r="Y14" t="n">
-        <v>1867.067354136004</v>
+        <v>2312.196277563236</v>
       </c>
     </row>
     <row r="15">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>717.9824408943862</v>
+        <v>1980.567913614668</v>
       </c>
       <c r="C16" t="n">
-        <v>583.3676584535024</v>
+        <v>1845.953131173785</v>
       </c>
       <c r="D16" t="n">
-        <v>467.57241952819</v>
+        <v>1730.157892248473</v>
       </c>
       <c r="E16" t="n">
-        <v>353.9807264328203</v>
+        <v>1616.566199153103</v>
       </c>
       <c r="F16" t="n">
-        <v>241.4121794219334</v>
+        <v>1503.997652142216</v>
       </c>
       <c r="G16" t="n">
-        <v>241.4121794219334</v>
+        <v>1370.616216003958</v>
       </c>
       <c r="H16" t="n">
-        <v>129.5163931268147</v>
+        <v>1258.720429708839</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>1195.716153014208</v>
       </c>
       <c r="J16" t="n">
-        <v>145.2731534964506</v>
+        <v>1274.477190078476</v>
       </c>
       <c r="K16" t="n">
-        <v>382.8987410626587</v>
+        <v>1512.102777644684</v>
       </c>
       <c r="L16" t="n">
-        <v>733.0969441284863</v>
+        <v>1862.300980710512</v>
       </c>
       <c r="M16" t="n">
-        <v>1110.892394345367</v>
+        <v>2240.096430927393</v>
       </c>
       <c r="N16" t="n">
-        <v>1485.939175668564</v>
+        <v>2615.143212250589</v>
       </c>
       <c r="O16" t="n">
-        <v>1818.907179206309</v>
+        <v>2948.111215788334</v>
       </c>
       <c r="P16" t="n">
-        <v>2085.1530842573</v>
+        <v>3214.357120839325</v>
       </c>
       <c r="Q16" t="n">
-        <v>2196.401785027146</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R16" t="n">
-        <v>2173.171792247621</v>
+        <v>3270.096764853723</v>
       </c>
       <c r="S16" t="n">
-        <v>2015.807308561471</v>
+        <v>3112.732281167573</v>
       </c>
       <c r="T16" t="n">
-        <v>1828.36209361802</v>
+        <v>2925.287066224123</v>
       </c>
       <c r="U16" t="n">
-        <v>1573.580627230687</v>
+        <v>2925.287066224123</v>
       </c>
       <c r="V16" t="n">
-        <v>1353.217539511824</v>
+        <v>2763.130076575322</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.121769961887</v>
+        <v>2508.034307025385</v>
       </c>
       <c r="X16" t="n">
-        <v>904.4536195508928</v>
+        <v>2314.366156614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>717.9824408943862</v>
+        <v>2127.894977957884</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1575.938723360401</v>
+        <v>1812.544339302854</v>
       </c>
       <c r="C17" t="n">
-        <v>1288.747239855086</v>
+        <v>1525.352855797539</v>
       </c>
       <c r="D17" t="n">
-        <v>1248.858190625884</v>
+        <v>1248.858190625885</v>
       </c>
       <c r="E17" t="n">
-        <v>944.8409714627368</v>
+        <v>944.8409714627378</v>
       </c>
       <c r="F17" t="n">
-        <v>615.626100108226</v>
+        <v>615.6261001082271</v>
       </c>
       <c r="G17" t="n">
-        <v>282.3246833883196</v>
+        <v>282.3246833883194</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3297.086186571364</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3172.879472390683</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3001.120029099616</v>
+        <v>3237.725645042068</v>
       </c>
       <c r="V17" t="n">
-        <v>2751.828175191142</v>
+        <v>2988.433791133594</v>
       </c>
       <c r="W17" t="n">
-        <v>2480.830553356124</v>
+        <v>2717.436169298577</v>
       </c>
       <c r="X17" t="n">
-        <v>2189.135828530141</v>
+        <v>2425.741444472594</v>
       </c>
       <c r="Y17" t="n">
-        <v>1880.767529989426</v>
+        <v>2117.373145931879</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,46 +5580,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927788</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>614.5447387341555</v>
+        <v>600.9874798312267</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3795892413453</v>
+        <v>513.8223303384166</v>
       </c>
       <c r="D19" t="n">
-        <v>459.0339832641063</v>
+        <v>445.4767243611776</v>
       </c>
       <c r="E19" t="n">
-        <v>392.8919231168099</v>
+        <v>379.3346642138813</v>
       </c>
       <c r="F19" t="n">
-        <v>327.7730090539963</v>
+        <v>314.2157501510678</v>
       </c>
       <c r="G19" t="n">
-        <v>241.841205863812</v>
+        <v>228.2839469608835</v>
       </c>
       <c r="H19" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,28 +5695,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1919.235124281117</v>
+        <v>1905.677865378188</v>
       </c>
       <c r="S19" t="n">
-        <v>1727.549240107944</v>
+        <v>1795.763014640111</v>
       </c>
       <c r="T19" t="n">
-        <v>1587.553658112566</v>
+        <v>1573.996399209637</v>
       </c>
       <c r="U19" t="n">
-        <v>1380.221824673307</v>
+        <v>1366.664565770378</v>
       </c>
       <c r="V19" t="n">
-        <v>1207.308369902516</v>
+        <v>1193.751110999587</v>
       </c>
       <c r="W19" t="n">
-        <v>999.6622333006526</v>
+        <v>986.1049743977235</v>
       </c>
       <c r="X19" t="n">
-        <v>853.4437158377319</v>
+        <v>839.8864569348029</v>
       </c>
       <c r="Y19" t="n">
-        <v>714.4221701292986</v>
+        <v>700.8649112263696</v>
       </c>
     </row>
     <row r="20">
@@ -5735,61 +5735,61 @@
         <v>1248.858190625885</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8409714627371</v>
+        <v>944.8409714627373</v>
       </c>
       <c r="F20" t="n">
-        <v>615.6261001082263</v>
+        <v>615.6261001082266</v>
       </c>
       <c r="G20" t="n">
-        <v>282.3246833883196</v>
+        <v>282.3246833883194</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3297.086186571364</v>
+        <v>3297.086186571363</v>
       </c>
       <c r="T20" t="n">
-        <v>3297.086186571364</v>
+        <v>3237.725645042068</v>
       </c>
       <c r="U20" t="n">
-        <v>3125.326743280297</v>
+        <v>3237.725645042068</v>
       </c>
       <c r="V20" t="n">
-        <v>2876.034889371823</v>
+        <v>2988.433791133594</v>
       </c>
       <c r="W20" t="n">
-        <v>2605.037267536806</v>
+        <v>2717.436169298576</v>
       </c>
       <c r="X20" t="n">
         <v>2425.741444472593</v>
@@ -5805,58 +5805,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811088</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999819</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387306</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332751</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601601</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927782</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064571</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5868,7 +5868,7 @@
         <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>519.2164463961306</v>
+        <v>600.9874798312267</v>
       </c>
       <c r="C22" t="n">
-        <v>432.0512969033203</v>
+        <v>432.0512969033198</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7056909260813</v>
+        <v>363.7056909260808</v>
       </c>
       <c r="E22" t="n">
-        <v>297.5636307787849</v>
+        <v>297.5636307787845</v>
       </c>
       <c r="F22" t="n">
-        <v>232.4447167159713</v>
+        <v>232.444716715971</v>
       </c>
       <c r="G22" t="n">
-        <v>146.5129135257869</v>
+        <v>146.5129135257867</v>
       </c>
       <c r="H22" t="n">
-        <v>82.06676017874139</v>
+        <v>82.06676017874128</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5932,28 +5932,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1919.235124281117</v>
+        <v>1919.235124281118</v>
       </c>
       <c r="S22" t="n">
-        <v>1809.32027354304</v>
+        <v>1809.320273543041</v>
       </c>
       <c r="T22" t="n">
-        <v>1587.553658112567</v>
+        <v>1669.324691547663</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.45079123821</v>
+        <v>1461.992858108404</v>
       </c>
       <c r="V22" t="n">
-        <v>1125.53733646742</v>
+        <v>1289.079403337613</v>
       </c>
       <c r="W22" t="n">
-        <v>904.3339409626277</v>
+        <v>1081.43326673575</v>
       </c>
       <c r="X22" t="n">
-        <v>758.115423499707</v>
+        <v>935.2147492728291</v>
       </c>
       <c r="Y22" t="n">
-        <v>619.0938777912736</v>
+        <v>782.6359446614664</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1530.18154183718</v>
       </c>
       <c r="D23" t="n">
-        <v>1253.686876665526</v>
+        <v>1253.686876665527</v>
       </c>
       <c r="E23" t="n">
-        <v>949.6696575023785</v>
+        <v>949.6696575023793</v>
       </c>
       <c r="F23" t="n">
-        <v>620.4547861478677</v>
+        <v>620.4547861478686</v>
       </c>
       <c r="G23" t="n">
-        <v>287.1533694279614</v>
+        <v>287.1533694279613</v>
       </c>
       <c r="H23" t="n">
         <v>71.34080247182531</v>
@@ -5996,13 +5996,13 @@
         <v>1045.073520369106</v>
       </c>
       <c r="M23" t="n">
-        <v>1578.605425041031</v>
+        <v>1815.211040983484</v>
       </c>
       <c r="N23" t="n">
-        <v>2125.384242099813</v>
+        <v>2361.989858042266</v>
       </c>
       <c r="O23" t="n">
-        <v>2628.35671297915</v>
+        <v>2864.962328921603</v>
       </c>
       <c r="P23" t="n">
         <v>3259.736695278781</v>
@@ -6014,16 +6014,16 @@
         <v>3567.040123591266</v>
       </c>
       <c r="S23" t="n">
-        <v>3538.520488553457</v>
+        <v>3538.520488553458</v>
       </c>
       <c r="T23" t="n">
-        <v>3414.313774372776</v>
+        <v>3414.313774372777</v>
       </c>
       <c r="U23" t="n">
-        <v>3242.554331081709</v>
+        <v>3242.55433108171</v>
       </c>
       <c r="V23" t="n">
-        <v>2993.262477173235</v>
+        <v>2993.262477173236</v>
       </c>
       <c r="W23" t="n">
         <v>2722.264855338218</v>
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>946.3725405207504</v>
+        <v>946.3725405207506</v>
       </c>
       <c r="C24" t="n">
-        <v>771.9195112396234</v>
+        <v>771.9195112396236</v>
       </c>
       <c r="D24" t="n">
-        <v>622.9851015783721</v>
+        <v>622.9851015783725</v>
       </c>
       <c r="E24" t="n">
-        <v>463.7476465729166</v>
+        <v>463.7476465729169</v>
       </c>
       <c r="F24" t="n">
-        <v>317.2130885998016</v>
+        <v>317.2130885998019</v>
       </c>
       <c r="G24" t="n">
-        <v>180.8499884324197</v>
+        <v>180.8499884324203</v>
       </c>
       <c r="H24" t="n">
-        <v>90.34809407028723</v>
+        <v>90.34809407028736</v>
       </c>
       <c r="I24" t="n">
         <v>71.34080247182531</v>
       </c>
       <c r="J24" t="n">
-        <v>165.0180719624427</v>
+        <v>165.0180719624429</v>
       </c>
       <c r="K24" t="n">
-        <v>403.2822709427898</v>
+        <v>403.2822709427899</v>
       </c>
       <c r="L24" t="n">
-        <v>769.9804312554552</v>
+        <v>769.9804312554554</v>
       </c>
       <c r="M24" t="n">
         <v>1217.256756477771</v>
       </c>
       <c r="N24" t="n">
-        <v>1690.779800032225</v>
+        <v>1690.779800032226</v>
       </c>
       <c r="O24" t="n">
-        <v>2101.74107945028</v>
+        <v>2101.741079450281</v>
       </c>
       <c r="P24" t="n">
-        <v>2412.240670926383</v>
+        <v>2412.240670926384</v>
       </c>
       <c r="Q24" t="n">
         <v>2569.882228572983</v>
       </c>
       <c r="R24" t="n">
-        <v>2569.737875165498</v>
+        <v>2569.737875165499</v>
       </c>
       <c r="S24" t="n">
-        <v>2440.299988658978</v>
+        <v>2440.299988658979</v>
       </c>
       <c r="T24" t="n">
         <v>2247.656988336834</v>
       </c>
       <c r="U24" t="n">
-        <v>2019.589141471249</v>
+        <v>2019.58914147125</v>
       </c>
       <c r="V24" t="n">
         <v>1784.437033239507</v>
@@ -6108,10 +6108,10 @@
         <v>1530.199676511305</v>
       </c>
       <c r="X24" t="n">
-        <v>1322.348176305772</v>
+        <v>1322.348176305773</v>
       </c>
       <c r="Y24" t="n">
-        <v>1114.587877540818</v>
+        <v>1114.587877540819</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>537.6023913387007</v>
+        <v>619.373424773798</v>
       </c>
       <c r="C25" t="n">
-        <v>450.4372418458905</v>
+        <v>450.4372418458911</v>
       </c>
       <c r="D25" t="n">
-        <v>382.0916358686515</v>
+        <v>382.0916358686521</v>
       </c>
       <c r="E25" t="n">
-        <v>315.9495757213551</v>
+        <v>315.9495757213558</v>
       </c>
       <c r="F25" t="n">
-        <v>250.8306616585415</v>
+        <v>250.8306616585423</v>
       </c>
       <c r="G25" t="n">
-        <v>164.8988584683572</v>
+        <v>151.3415995654286</v>
       </c>
       <c r="H25" t="n">
-        <v>86.89544621838326</v>
+        <v>86.89544621838317</v>
       </c>
       <c r="I25" t="n">
         <v>71.34080247182531</v>
@@ -6169,28 +6169,28 @@
         <v>1932.123234128135</v>
       </c>
       <c r="R25" t="n">
-        <v>1924.063810320759</v>
+        <v>1924.06381032076</v>
       </c>
       <c r="S25" t="n">
-        <v>1732.377926147586</v>
+        <v>1814.148959582683</v>
       </c>
       <c r="T25" t="n">
-        <v>1592.382344152208</v>
+        <v>1674.153377587305</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.050510712949</v>
+        <v>1466.821544148046</v>
       </c>
       <c r="V25" t="n">
-        <v>1130.366022507062</v>
+        <v>1293.908089377255</v>
       </c>
       <c r="W25" t="n">
-        <v>922.7198859051978</v>
+        <v>1086.261952775392</v>
       </c>
       <c r="X25" t="n">
-        <v>776.5013684422771</v>
+        <v>940.043435312471</v>
       </c>
       <c r="Y25" t="n">
-        <v>637.4798227338438</v>
+        <v>801.0218896040377</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1886.947760467649</v>
+        <v>1886.94776046765</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.687569101514</v>
+        <v>1588.687569101515</v>
       </c>
       <c r="D26" t="n">
         <v>1301.124196069041</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0382690450733</v>
+        <v>986.0382690450735</v>
       </c>
       <c r="F26" t="n">
-        <v>645.7546898297428</v>
+        <v>645.7546898297426</v>
       </c>
       <c r="G26" t="n">
         <v>301.3845652490158</v>
       </c>
       <c r="H26" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205963</v>
       </c>
       <c r="I26" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205963</v>
       </c>
       <c r="J26" t="n">
-        <v>268.986733265314</v>
+        <v>430.7880704114381</v>
       </c>
       <c r="K26" t="n">
-        <v>923.7100654006135</v>
+        <v>764.6074441012845</v>
       </c>
       <c r="L26" t="n">
         <v>1374.744278649022</v>
@@ -6245,10 +6245,10 @@
         <v>3352.801837616244</v>
       </c>
       <c r="Q26" t="n">
-        <v>3601.088199371927</v>
+        <v>3601.088199371926</v>
       </c>
       <c r="R26" t="n">
-        <v>3725.164521602982</v>
+        <v>3725.164521602981</v>
       </c>
       <c r="S26" t="n">
         <v>3685.576178704353</v>
@@ -6266,10 +6266,10 @@
         <v>2825.045714045833</v>
       </c>
       <c r="X26" t="n">
-        <v>2522.28228135903</v>
+        <v>2522.282281359031</v>
       </c>
       <c r="Y26" t="n">
-        <v>2202.845274957494</v>
+        <v>2202.845274957495</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>949.5350284809842</v>
+        <v>949.5350284809848</v>
       </c>
       <c r="C27" t="n">
-        <v>775.0819991998573</v>
+        <v>775.0819991998578</v>
       </c>
       <c r="D27" t="n">
-        <v>626.1475895386061</v>
+        <v>626.1475895386066</v>
       </c>
       <c r="E27" t="n">
-        <v>466.9101345331505</v>
+        <v>466.9101345331511</v>
       </c>
       <c r="F27" t="n">
-        <v>320.3755765600356</v>
+        <v>320.3755765600361</v>
       </c>
       <c r="G27" t="n">
         <v>184.0124763926542</v>
       </c>
       <c r="H27" t="n">
-        <v>93.51058203052169</v>
+        <v>93.51058203052168</v>
       </c>
       <c r="I27" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205963</v>
       </c>
       <c r="J27" t="n">
-        <v>168.1805599226773</v>
+        <v>168.180559922677</v>
       </c>
       <c r="K27" t="n">
-        <v>406.4447589030242</v>
+        <v>406.4447589030241</v>
       </c>
       <c r="L27" t="n">
-        <v>773.1429192156896</v>
+        <v>773.1429192156895</v>
       </c>
       <c r="M27" t="n">
         <v>1220.419244438006</v>
@@ -6318,13 +6318,13 @@
         <v>1693.94228799246</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.903567410514</v>
+        <v>2104.903567410515</v>
       </c>
       <c r="P27" t="n">
-        <v>2415.403158886617</v>
+        <v>2415.403158886618</v>
       </c>
       <c r="Q27" t="n">
-        <v>2573.044716533217</v>
+        <v>2573.044716533218</v>
       </c>
       <c r="R27" t="n">
         <v>2572.900363125732</v>
@@ -6336,7 +6336,7 @@
         <v>2250.819476297068</v>
       </c>
       <c r="U27" t="n">
-        <v>2022.751629431483</v>
+        <v>2022.751629431484</v>
       </c>
       <c r="V27" t="n">
         <v>1787.599521199741</v>
@@ -6345,10 +6345,10 @@
         <v>1533.362164471539</v>
       </c>
       <c r="X27" t="n">
-        <v>1325.510664266006</v>
+        <v>1325.510664266007</v>
       </c>
       <c r="Y27" t="n">
-        <v>1117.750365501052</v>
+        <v>1117.750365501053</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>604.6885754217476</v>
+        <v>604.6885754217474</v>
       </c>
       <c r="C28" t="n">
-        <v>506.4547180681172</v>
+        <v>506.454718068117</v>
       </c>
       <c r="D28" t="n">
-        <v>427.0404042300581</v>
+        <v>427.0404042300579</v>
       </c>
       <c r="E28" t="n">
-        <v>349.8296362219417</v>
+        <v>349.8296362219414</v>
       </c>
       <c r="F28" t="n">
-        <v>273.6420142983079</v>
+        <v>273.6420142983077</v>
       </c>
       <c r="G28" t="n">
-        <v>176.6415032473033</v>
+        <v>176.6415032473032</v>
       </c>
       <c r="H28" t="n">
         <v>101.1266420394377</v>
       </c>
       <c r="I28" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205963</v>
       </c>
       <c r="J28" t="n">
-        <v>119.6259228789952</v>
+        <v>119.6259228789951</v>
       </c>
       <c r="K28" t="n">
-        <v>323.6131058278716</v>
+        <v>323.6131058278715</v>
       </c>
       <c r="L28" t="n">
-        <v>640.1729042763677</v>
+        <v>640.1729042763676</v>
       </c>
       <c r="M28" t="n">
-        <v>984.3299498759167</v>
+        <v>984.3299498759166</v>
       </c>
       <c r="N28" t="n">
         <v>1325.738326581781</v>
@@ -6403,7 +6403,7 @@
         <v>1857.675425935854</v>
       </c>
       <c r="Q28" t="n">
-        <v>1935.285722088369</v>
+        <v>1935.285722088368</v>
       </c>
       <c r="R28" t="n">
         <v>1916.157590420173</v>
@@ -6424,10 +6424,10 @@
         <v>1023.012193570705</v>
       </c>
       <c r="X28" t="n">
-        <v>865.7249682469642</v>
+        <v>865.724968246964</v>
       </c>
       <c r="Y28" t="n">
-        <v>715.6347146777107</v>
+        <v>715.6347146777105</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467785</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
@@ -6470,43 +6470,43 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
-        <v>2156.722678745573</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O29" t="n">
-        <v>3036.687329075028</v>
+        <v>3083.181225561918</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415467</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
         <v>786.3326864982171</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
@@ -6707,43 +6707,43 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.190356524677</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O32" t="n">
-        <v>3015.155006854131</v>
+        <v>3083.181225561918</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3477.955591919096</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3936.433794428084</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415474</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973153</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498218</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6971,16 +6971,16 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.2355359389142</v>
+        <v>749.7479478441287</v>
       </c>
       <c r="C37" t="n">
-        <v>571.9707875848505</v>
+        <v>679.4831994900651</v>
       </c>
       <c r="D37" t="n">
-        <v>421.8541481725148</v>
+        <v>628.0379946515727</v>
       </c>
       <c r="E37" t="n">
-        <v>372.612489163965</v>
+        <v>578.796335643023</v>
       </c>
       <c r="F37" t="n">
-        <v>324.3939762398979</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>255.3625741884602</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
         <v>163.8377936138381</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058689</v>
+        <v>1621.35446039006</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758175</v>
+        <v>1430.923028089547</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.397562552288</v>
+        <v>1274.909974457503</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891712</v>
+        <v>1084.164238994386</v>
       </c>
       <c r="X37" t="n">
-        <v>847.3337107649972</v>
+        <v>954.8461226702118</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953105</v>
+        <v>832.724978100525</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,28 +7157,28 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
@@ -7193,16 +7193,16 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7214,7 +7214,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7242,16 +7242,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>740.9069705127571</v>
+        <v>500.9308303909361</v>
       </c>
       <c r="C40" t="n">
-        <v>670.6422221586935</v>
+        <v>430.6660820368725</v>
       </c>
       <c r="D40" t="n">
-        <v>520.5255827463577</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E40" t="n">
-        <v>428.6506527636737</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F40" t="n">
         <v>281.7607052657634</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7369,13 +7369,13 @@
         <v>1364.740431699975</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.676579912684</v>
+        <v>903.3718743647059</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.5554353429968</v>
+        <v>682.5792952211758</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307324</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7421,7 +7421,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7430,31 +7430,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7479,16 +7479,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.2355359389148</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C43" t="n">
-        <v>571.9707875848513</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D43" t="n">
-        <v>520.5255827463591</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E43" t="n">
-        <v>372.612489163966</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F43" t="n">
-        <v>281.7607052657632</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758176</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>1266.068997126132</v>
+        <v>978.8956707359729</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.323261663015</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X43" t="n">
-        <v>946.0051453388412</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y43" t="n">
-        <v>725.2125661953111</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="44">
@@ -7628,70 +7628,70 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307322</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7716,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.9308303909359</v>
+        <v>444.8926667912274</v>
       </c>
       <c r="C46" t="n">
-        <v>430.6660820368723</v>
+        <v>374.6279184371639</v>
       </c>
       <c r="D46" t="n">
-        <v>379.22087719838</v>
+        <v>323.1827135986716</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898302</v>
+        <v>273.9410545901219</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>225.722541666055</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>156.6911396146173</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1884.661277114358</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.646827515028</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1668.551646658397</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
-        <v>1478.120214357884</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V46" t="n">
-        <v>1223.435726151997</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>934.0185561150363</v>
+        <v>877.9803925153278</v>
       </c>
       <c r="X46" t="n">
-        <v>706.0290052170189</v>
+        <v>649.9908416173105</v>
       </c>
       <c r="Y46" t="n">
-        <v>583.9078606473322</v>
+        <v>527.8696970476237</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>162.2978690040813</v>
+        <v>162.2978690040816</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9914057234464</v>
+        <v>191.9914057234467</v>
       </c>
       <c r="L8" t="n">
-        <v>200.9078089141281</v>
+        <v>200.9078089141285</v>
       </c>
       <c r="M8" t="n">
-        <v>191.5593174558051</v>
+        <v>191.5593174558055</v>
       </c>
       <c r="N8" t="n">
-        <v>189.9985349774689</v>
+        <v>189.9985349774694</v>
       </c>
       <c r="O8" t="n">
-        <v>192.8801897110954</v>
+        <v>192.8801897110958</v>
       </c>
       <c r="P8" t="n">
-        <v>199.4682752946443</v>
+        <v>199.4682752946447</v>
       </c>
       <c r="Q8" t="n">
-        <v>198.4517076827624</v>
+        <v>198.4517076827627</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.6714251463044</v>
+        <v>115.6714251463046</v>
       </c>
       <c r="K9" t="n">
-        <v>118.756622049649</v>
+        <v>118.7566220496493</v>
       </c>
       <c r="L9" t="n">
-        <v>112.8924882119092</v>
+        <v>112.8924882119095</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1878168554324</v>
+        <v>112.1878168554327</v>
       </c>
       <c r="N9" t="n">
-        <v>100.6029077587448</v>
+        <v>100.6029077587451</v>
       </c>
       <c r="O9" t="n">
-        <v>114.4762438003197</v>
+        <v>114.47624380032</v>
       </c>
       <c r="P9" t="n">
-        <v>111.4056277943715</v>
+        <v>111.4056277943717</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.8951425903332</v>
+        <v>124.8951425903333</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>120.1534254493253</v>
+        <v>120.1534254493255</v>
       </c>
       <c r="M10" t="n">
-        <v>123.3937454191304</v>
+        <v>123.3937454191306</v>
       </c>
       <c r="N10" t="n">
-        <v>112.5228230971526</v>
+        <v>112.5228230971527</v>
       </c>
       <c r="O10" t="n">
-        <v>124.4513111108508</v>
+        <v>124.451311110851</v>
       </c>
       <c r="P10" t="n">
-        <v>125.7441125811416</v>
+        <v>125.7441125811418</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>238.9955716590434</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>238.9955716590434</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.660921085079707</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>160.7097184841703</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>-4.695133171139787e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,16 +10118,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>21.74982042514819</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>274.8351763665423</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>65.51711806374323</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>62.52018570663735</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>371.7758208812687</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>145.3579992823223</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>395.9180249594995</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>399.9637048712415</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.61890899071403</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.22974100596412</v>
+        <v>98.22974100596386</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>240.0371511766901</v>
+        <v>240.03715117669</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>358.7730798962571</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>110.6440792198208</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>135.4759418643572</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.97413188783541</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>178.81100454923</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>208.5909284939573</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>206.45631327163</v>
       </c>
       <c r="V13" t="n">
-        <v>241.1796225416161</v>
+        <v>241.179622541616</v>
       </c>
       <c r="W13" t="n">
-        <v>152.1211677593449</v>
+        <v>275.564977554379</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>207.2838943275363</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>376.9435391713002</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>143.5497993058756</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>75.20957530602254</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>169.9397836574669</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>217.0169854767487</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>293.7740719879816</v>
       </c>
       <c r="W14" t="n">
-        <v>315.2627822352598</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.8537936997841</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>132.047621776875</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.95627333616461</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>252.2336517234596</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>57.62403708936206</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>234.2395597830274</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>28.23443868743001</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>122.9646470388743</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>83.04047405672392</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -24020,10 +24020,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>122.9646470388744</v>
+        <v>64.19771092487218</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>170.0418488581562</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>111.2749127441525</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1273608.678372827</v>
+        <v>1273608.678372828</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1376272.59083969</v>
+        <v>1376272.590839689</v>
       </c>
     </row>
     <row r="9">
@@ -26314,25 +26314,25 @@
         <v>40963.81693585192</v>
       </c>
       <c r="C2" t="n">
-        <v>40963.81693585192</v>
+        <v>40963.8169358519</v>
       </c>
       <c r="D2" t="n">
-        <v>40964.69609084836</v>
+        <v>40964.69609084837</v>
       </c>
       <c r="E2" t="n">
-        <v>35067.4013160276</v>
+        <v>35067.40131602758</v>
       </c>
       <c r="F2" t="n">
-        <v>37100.28820801707</v>
+        <v>37100.28820801709</v>
       </c>
       <c r="G2" t="n">
-        <v>40119.81504527776</v>
+        <v>40119.81504527774</v>
       </c>
       <c r="H2" t="n">
-        <v>40119.81504527771</v>
+        <v>40119.81504527773</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321417</v>
@@ -26341,16 +26341,16 @@
         <v>41052.08849321416</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321418</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321417</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>47057.54044562039</v>
+        <v>47057.54044561985</v>
       </c>
       <c r="E3" t="n">
-        <v>1088389.735862814</v>
+        <v>1088389.735862815</v>
       </c>
       <c r="F3" t="n">
-        <v>18416.13255995303</v>
+        <v>18416.13255995305</v>
       </c>
       <c r="G3" t="n">
         <v>37580.10929487403</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16050.61275434507</v>
+        <v>16050.61275434519</v>
       </c>
       <c r="J3" t="n">
-        <v>10343.07499834436</v>
+        <v>10343.07499834433</v>
       </c>
       <c r="K3" t="n">
-        <v>21373.21069935967</v>
+        <v>21373.21069935964</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487398</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.023181539494544e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,28 +26421,28 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>435210.0306994229</v>
+        <v>435210.0306994232</v>
       </c>
       <c r="E4" t="n">
-        <v>23893.70396944314</v>
+        <v>23893.70396944322</v>
       </c>
       <c r="F4" t="n">
-        <v>47156.63397766605</v>
+        <v>47156.63397766613</v>
       </c>
       <c r="G4" t="n">
-        <v>81541.67912801058</v>
+        <v>81541.67912801064</v>
       </c>
       <c r="H4" t="n">
         <v>81541.67912801064</v>
       </c>
       <c r="I4" t="n">
-        <v>91082.2389512966</v>
+        <v>91082.23895129666</v>
       </c>
       <c r="J4" t="n">
         <v>90360.72043612626</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699583</v>
+        <v>88960.95519699577</v>
       </c>
       <c r="L4" t="n">
         <v>88960.95519699577</v>
@@ -26451,10 +26451,10 @@
         <v>92183.89891818166</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.89891818167</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="O4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="P4" t="n">
         <v>92183.89891818172</v>
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34825.44868266344</v>
+        <v>34825.44868266342</v>
       </c>
       <c r="E5" t="n">
         <v>75227.57041053308</v>
@@ -26482,13 +26482,13 @@
         <v>77162.85272076144</v>
       </c>
       <c r="G5" t="n">
-        <v>81112.00548114991</v>
+        <v>81112.0054811499</v>
       </c>
       <c r="H5" t="n">
-        <v>81112.00548114991</v>
+        <v>81112.0054811499</v>
       </c>
       <c r="I5" t="n">
-        <v>84781.80687127773</v>
+        <v>84781.80687127775</v>
       </c>
       <c r="J5" t="n">
         <v>86264.06787191605</v>
@@ -26503,13 +26503,13 @@
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-445063.7736131132</v>
+        <v>-445068.1871909813</v>
       </c>
       <c r="C6" t="n">
-        <v>-445063.7736131132</v>
+        <v>-445068.1871909814</v>
       </c>
       <c r="D6" t="n">
-        <v>-476128.3237368584</v>
+        <v>-476132.6933569764</v>
       </c>
       <c r="E6" t="n">
-        <v>-1152443.608926763</v>
+        <v>-1152742.843285623</v>
       </c>
       <c r="F6" t="n">
-        <v>-105635.3310503634</v>
+        <v>-105832.9210646234</v>
       </c>
       <c r="G6" t="n">
-        <v>-160113.9788587568</v>
+        <v>-160160.5925311536</v>
       </c>
       <c r="H6" t="n">
-        <v>-122533.8695638829</v>
+        <v>-122580.4832362796</v>
       </c>
       <c r="I6" t="n">
-        <v>-150862.5700837052</v>
+        <v>-150862.5700837054</v>
       </c>
       <c r="J6" t="n">
         <v>-145915.7748131725</v>
       </c>
       <c r="K6" t="n">
-        <v>-158660.0190779475</v>
+        <v>-158660.0190779474</v>
       </c>
       <c r="L6" t="n">
-        <v>-174866.9176734617</v>
+        <v>-174866.9176734618</v>
       </c>
       <c r="M6" t="n">
         <v>-335818.5077239416</v>
       </c>
       <c r="N6" t="n">
+        <v>-133650.4077312174</v>
+      </c>
+      <c r="O6" t="n">
         <v>-133650.4077312173</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>-133650.4077312175</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-133650.4077312173</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="F2" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="G2" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="H2" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="I2" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="J2" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810489</v>
@@ -26722,10 +26722,10 @@
         <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>54.9471872781393</v>
+        <v>54.94718727813867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26802,34 +26802,34 @@
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>891.7600308978165</v>
       </c>
       <c r="J4" t="n">
-        <v>931.2911304007455</v>
+        <v>931.2911304007454</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="F2" t="n">
-        <v>23.02016569994129</v>
+        <v>23.02016569994131</v>
       </c>
       <c r="G2" t="n">
         <v>46.97513661859254</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951241</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>54.9471872781393</v>
+        <v>54.94718727813867</v>
       </c>
       <c r="E3" t="n">
-        <v>1034.829513315159</v>
+        <v>1034.82951331516</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.35857549552338</v>
+        <v>60.35857549552384</v>
       </c>
       <c r="J4" t="n">
-        <v>39.53109950292901</v>
+        <v>39.5310995029289</v>
       </c>
       <c r="K4" t="n">
-        <v>83.04533080786916</v>
+        <v>83.04533080786905</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959713</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="K2" t="n">
-        <v>23.02016569994129</v>
+        <v>23.02016569994131</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859254</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.2125794757179</v>
+        <v>337.212579475718</v>
       </c>
       <c r="I8" t="n">
-        <v>201.9599038918513</v>
+        <v>201.9599038918514</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.9934345125651</v>
+        <v>135.9934345125652</v>
       </c>
       <c r="S8" t="n">
-        <v>203.9864654451374</v>
+        <v>203.9864654451375</v>
       </c>
       <c r="T8" t="n">
         <v>222.1288895146437</v>
@@ -27950,7 +27950,7 @@
         <v>111.0939941762468</v>
       </c>
       <c r="I9" t="n">
-        <v>85.32743077468496</v>
+        <v>85.327430774685</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.81979280255501</v>
+        <v>92.8197928025551</v>
       </c>
       <c r="S9" t="n">
         <v>169.4878754611688</v>
@@ -28032,10 +28032,10 @@
         <v>152.4707159843717</v>
       </c>
       <c r="J10" t="n">
-        <v>86.35386412549099</v>
+        <v>86.35386412549106</v>
       </c>
       <c r="K10" t="n">
-        <v>10.7576057043317</v>
+        <v>10.75760570433184</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.86501797269536</v>
+        <v>77.86501797269544</v>
       </c>
       <c r="R10" t="n">
-        <v>172.8381653398305</v>
+        <v>172.8381653398306</v>
       </c>
       <c r="S10" t="n">
         <v>222.2898151187396</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="C11" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="D11" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="E11" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="F11" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="G11" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="H11" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="I11" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="T11" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="U11" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="V11" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="W11" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="X11" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="C13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="D13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="E13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="F13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="G13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="H13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="I13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="J13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="K13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="L13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="M13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="N13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="O13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="P13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="R13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="S13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="T13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="U13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="V13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="W13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="X13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.9580207822119</v>
+        <v>10.95802078221197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="C14" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="D14" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="E14" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="F14" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="G14" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="H14" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="I14" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="T14" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="U14" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="V14" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="W14" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="X14" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="Y14" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="C16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="D16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="E16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="F16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="G16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="H16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="I16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="J16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="K16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="L16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="M16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="N16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="O16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="P16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="R16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="S16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="T16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="U16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="V16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="W16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="X16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
       <c r="Y16" t="n">
-        <v>33.97818648215319</v>
+        <v>33.97818648215328</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="C17" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="D17" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="E17" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="F17" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="G17" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="H17" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="T17" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="U17" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="V17" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="W17" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="X17" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="Y17" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
     </row>
     <row r="18">
@@ -28719,25 +28719,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="C19" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="D19" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="E19" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="F19" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="G19" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="H19" t="n">
-        <v>67.53163678684662</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>80.95332310074573</v>
+        <v>67.53163678684562</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="T19" t="n">
-        <v>80.95332310074573</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="V19" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="W19" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="X19" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="C20" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="D20" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="E20" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="F20" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="G20" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="H20" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="T20" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="U20" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="V20" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="W20" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="X20" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="Y20" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.95332310074573</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>80.95332310074573</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="E22" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="F22" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="G22" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="H22" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="I22" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="S22" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="V22" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="W22" t="n">
-        <v>67.53163678684675</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="X22" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.95332310074573</v>
+        <v>67.53163678684575</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="C23" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="D23" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="E23" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="F23" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="G23" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="H23" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="T23" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="U23" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="V23" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="W23" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="X23" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="Y23" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.95332310074573</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>80.95332310074573</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="E25" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="F25" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="G25" t="n">
-        <v>80.95332310074573</v>
+        <v>67.53163678684571</v>
       </c>
       <c r="H25" t="n">
-        <v>67.53163678684662</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="I25" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="T25" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="U25" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="W25" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="X25" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.95332310074573</v>
+        <v>80.95332310074582</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C26" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D26" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E26" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F26" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G26" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H26" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T26" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U26" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V26" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W26" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X26" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y26" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
     </row>
     <row r="27">
@@ -29430,28 +29430,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29478,28 +29478,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="S28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y28" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859223</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859352</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -30147,19 +30147,19 @@
         <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810489</v>
+        <v>45.39291458738718</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>54.14548214544486</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -30189,19 +30189,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U37" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W37" t="n">
         <v>97.68472022810489</v>
@@ -30384,19 +30384,19 @@
         <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>55.47778196371205</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30441,13 +30441,13 @@
         <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371183</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>55.47778196371051</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810502</v>
+        <v>46.72521440565433</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371124</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30900,19 +30900,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.72521440565365</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -30921,7 +30921,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2208932151884996</v>
+        <v>0.220893215188497</v>
       </c>
       <c r="H8" t="n">
-        <v>2.262222640049222</v>
+        <v>2.262222640049195</v>
       </c>
       <c r="I8" t="n">
-        <v>8.515985678554637</v>
+        <v>8.515985678554539</v>
       </c>
       <c r="J8" t="n">
-        <v>18.74803552260493</v>
+        <v>18.74803552260471</v>
       </c>
       <c r="K8" t="n">
-        <v>28.09844532153412</v>
+        <v>28.0984453215338</v>
       </c>
       <c r="L8" t="n">
-        <v>34.85860605585917</v>
+        <v>34.85860605585877</v>
       </c>
       <c r="M8" t="n">
-        <v>38.78691577146765</v>
+        <v>38.7869157714672</v>
       </c>
       <c r="N8" t="n">
-        <v>39.41452861912197</v>
+        <v>39.41452861912153</v>
       </c>
       <c r="O8" t="n">
-        <v>37.21802171059133</v>
+        <v>37.2180217105909</v>
       </c>
       <c r="P8" t="n">
-        <v>31.76472046062525</v>
+        <v>31.76472046062488</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.8539821916871</v>
+        <v>23.85398219168682</v>
       </c>
       <c r="R8" t="n">
-        <v>13.8756834285846</v>
+        <v>13.87568342858444</v>
       </c>
       <c r="S8" t="n">
-        <v>5.033604141107938</v>
+        <v>5.03360414110788</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9669600494876572</v>
+        <v>0.9669600494876461</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01767145721507996</v>
+        <v>0.01767145721507976</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1181882896171298</v>
+        <v>0.1181882896171285</v>
       </c>
       <c r="H9" t="n">
-        <v>1.141450060249649</v>
+        <v>1.141450060249636</v>
       </c>
       <c r="I9" t="n">
-        <v>4.069202076730129</v>
+        <v>4.069202076730082</v>
       </c>
       <c r="J9" t="n">
-        <v>11.16620152036225</v>
+        <v>11.16620152036213</v>
       </c>
       <c r="K9" t="n">
-        <v>19.08481692470995</v>
+        <v>19.08481692470973</v>
       </c>
       <c r="L9" t="n">
-        <v>25.66189156796497</v>
+        <v>25.66189156796467</v>
       </c>
       <c r="M9" t="n">
-        <v>29.94621706658592</v>
+        <v>29.94621706658557</v>
       </c>
       <c r="N9" t="n">
-        <v>30.73880432458852</v>
+        <v>30.73880432458816</v>
       </c>
       <c r="O9" t="n">
-        <v>28.12000064412474</v>
+        <v>28.12000064412442</v>
       </c>
       <c r="P9" t="n">
-        <v>22.56877961995877</v>
+        <v>22.56877961995851</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.08663149568836</v>
+        <v>15.08663149568819</v>
       </c>
       <c r="R9" t="n">
-        <v>7.338041350088116</v>
+        <v>7.338041350088032</v>
       </c>
       <c r="S9" t="n">
-        <v>2.195295642669055</v>
+        <v>2.195295642669029</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4763817463076415</v>
+        <v>0.476381746307636</v>
       </c>
       <c r="U9" t="n">
-        <v>0.007775545369548018</v>
+        <v>0.007775545369547929</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09908509181303808</v>
+        <v>0.09908509181303693</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8809565435741028</v>
+        <v>0.8809565435740927</v>
       </c>
       <c r="I10" t="n">
-        <v>2.979758942886637</v>
+        <v>2.979758942886602</v>
       </c>
       <c r="J10" t="n">
-        <v>7.005315991181791</v>
+        <v>7.005315991181711</v>
       </c>
       <c r="K10" t="n">
-        <v>11.51188612155115</v>
+        <v>11.51188612155102</v>
       </c>
       <c r="L10" t="n">
-        <v>14.73125083191295</v>
+        <v>14.73125083191279</v>
       </c>
       <c r="M10" t="n">
-        <v>15.53203852847468</v>
+        <v>15.53203852847451</v>
       </c>
       <c r="N10" t="n">
-        <v>15.16272136808065</v>
+        <v>15.16272136808047</v>
       </c>
       <c r="O10" t="n">
-        <v>14.00522734099197</v>
+        <v>14.00522734099181</v>
       </c>
       <c r="P10" t="n">
-        <v>11.98389146800598</v>
+        <v>11.98389146800584</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.297025278999035</v>
+        <v>8.297025278998939</v>
       </c>
       <c r="R10" t="n">
-        <v>4.455226037338965</v>
+        <v>4.455226037338914</v>
       </c>
       <c r="S10" t="n">
-        <v>1.726782918232672</v>
+        <v>1.726782918232652</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4233635741102535</v>
+        <v>0.4233635741102486</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005404641371620265</v>
+        <v>0.005404641371620202</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>56.53643739527813</v>
+        <v>56.5364373952782</v>
       </c>
       <c r="K13" t="n">
         <v>217.0056803265315</v>
       </c>
       <c r="L13" t="n">
-        <v>330.71539295241</v>
+        <v>330.7153929524101</v>
       </c>
       <c r="M13" t="n">
         <v>358.5914001756958</v>
@@ -35580,13 +35580,13 @@
         <v>355.814966949752</v>
       </c>
       <c r="O13" t="n">
-        <v>313.3111510048517</v>
+        <v>313.3111510048518</v>
       </c>
       <c r="P13" t="n">
         <v>245.9150919273224</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.35225932010556</v>
+        <v>89.35225932010563</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.55660309521942</v>
+        <v>79.55660309521951</v>
       </c>
       <c r="K16" t="n">
-        <v>240.0258460264728</v>
+        <v>240.0258460264729</v>
       </c>
       <c r="L16" t="n">
-        <v>353.7355586523513</v>
+        <v>353.7355586523514</v>
       </c>
       <c r="M16" t="n">
-        <v>381.611565875637</v>
+        <v>381.6115658756371</v>
       </c>
       <c r="N16" t="n">
         <v>378.8351326496933</v>
@@ -35820,10 +35820,10 @@
         <v>336.331316704793</v>
       </c>
       <c r="P16" t="n">
-        <v>268.9352576272636</v>
+        <v>268.9352576272637</v>
       </c>
       <c r="Q16" t="n">
-        <v>112.3724250200468</v>
+        <v>112.3724250200469</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>777.9166874892702</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36373,7 +36373,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>637.7575578784152</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>196.4479220537923</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>616.2998328765025</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36838,16 +36838,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>574.0516558380597</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>673.5971625859141</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37075,22 +37075,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>464.2791042831151</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>122.1333842488621</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165846</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629131</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
